--- a/case_studies/results/santa_rosalia/alternatives_256.xlsx
+++ b/case_studies/results/santa_rosalia/alternatives_256.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>172.1187226027397</v>
+        <v>86.05936130136985</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>154.9068503424657</v>
+        <v>86.05936130136985</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>154.9068503424657</v>
+        <v>86.05936130136985</v>
       </c>
       <c r="G4" t="n">
         <v>52.30595243835617</v>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>154.9068503424657</v>
+        <v>86.05936130136985</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="6">
@@ -596,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>137.6949780821918</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -625,19 +625,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>137.6949780821918</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G7" t="n">
         <v>52.30595243835617</v>
@@ -654,19 +654,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>137.6949780821918</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I8" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="9">
@@ -683,22 +683,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>137.6949780821918</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G9" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>137.6949780821918</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G10" t="n">
         <v>52.30595243835617</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="11">
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>137.6949780821918</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="12">
@@ -770,10 +770,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>120.4831058219178</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4831058219178</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G13" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H13" t="n">
         <v>22.12631772356879</v>
@@ -828,19 +828,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>120.4831058219178</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I14" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="15">
@@ -857,22 +857,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>120.4831058219178</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G15" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4831058219178</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G16" t="n">
         <v>52.30595243835617</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="17">
@@ -915,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F17" t="n">
-        <v>120.4831058219178</v>
+        <v>68.84748904109588</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C18" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G19" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H19" t="n">
         <v>22.12631772356879</v>
@@ -1002,19 +1002,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G20" t="n">
         <v>52.30595243835617</v>
@@ -1023,7 +1023,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I20" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="21">
@@ -1031,19 +1031,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I21" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="22">
@@ -1060,22 +1060,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G22" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H22" t="n">
         <v>22.12631772356879</v>
@@ -1089,19 +1089,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G23" t="n">
         <v>52.30595243835617</v>
@@ -1110,7 +1110,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I23" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="24">
@@ -1118,19 +1118,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F24" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I24" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="25">
@@ -1147,22 +1147,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G25" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G26" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="27">
@@ -1205,19 +1205,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F27" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G27" t="n">
         <v>52.30595243835617</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="28">
@@ -1234,7 +1234,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F28" t="n">
-        <v>103.2712335616438</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="29">
@@ -1263,10 +1263,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C30" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G30" t="n">
         <v>52.30595243835617</v>
@@ -1321,19 +1321,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C31" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I31" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="32">
@@ -1350,22 +1350,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D32" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G32" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H32" t="n">
         <v>22.12631772356879</v>
@@ -1379,19 +1379,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C33" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F33" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G33" t="n">
         <v>52.30595243835617</v>
@@ -1400,7 +1400,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I33" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="34">
@@ -1408,19 +1408,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C34" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I34" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="35">
@@ -1437,22 +1437,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C35" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G35" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H35" t="n">
         <v>22.12631772356879</v>
@@ -1466,19 +1466,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G36" t="n">
         <v>52.30595243835617</v>
@@ -1487,7 +1487,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I36" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="37">
@@ -1495,19 +1495,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F37" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I37" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="38">
@@ -1524,22 +1524,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G38" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H38" t="n">
         <v>22.12631772356879</v>
@@ -1553,28 +1553,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G39" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H39" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I39" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="40">
@@ -1582,19 +1582,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E40" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F40" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G40" t="n">
         <v>52.30595243835617</v>
@@ -1603,7 +1603,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I40" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="41">
@@ -1611,19 +1611,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F41" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I41" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="42">
@@ -1640,22 +1640,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G42" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1669,28 +1669,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G43" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="44">
@@ -1698,28 +1698,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E44" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G44" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="45">
@@ -1727,28 +1727,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F45" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G45" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="46">
@@ -1756,19 +1756,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F46" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G46" t="n">
         <v>52.30595243835617</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="47">
@@ -1785,7 +1785,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F47" t="n">
-        <v>86.05936130136985</v>
+        <v>51.63561678082191</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="48">
@@ -1814,10 +1814,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C48" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G49" t="n">
         <v>52.30595243835617</v>
@@ -1872,19 +1872,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C50" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F50" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I50" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="51">
@@ -1901,22 +1901,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C51" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G51" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H51" t="n">
         <v>22.12631772356879</v>
@@ -1930,19 +1930,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C52" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F52" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G52" t="n">
         <v>52.30595243835617</v>
@@ -1951,7 +1951,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I52" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="53">
@@ -1959,19 +1959,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C53" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I53" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="54">
@@ -1988,22 +1988,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D54" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G54" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H54" t="n">
         <v>22.12631772356879</v>
@@ -2017,19 +2017,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C55" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E55" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F55" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G55" t="n">
         <v>52.30595243835617</v>
@@ -2038,7 +2038,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I55" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="56">
@@ -2046,19 +2046,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F56" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I56" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="57">
@@ -2075,22 +2075,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G57" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H57" t="n">
         <v>22.12631772356879</v>
@@ -2104,28 +2104,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G58" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H58" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I58" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="59">
@@ -2133,19 +2133,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F59" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G59" t="n">
         <v>52.30595243835617</v>
@@ -2154,7 +2154,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I59" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="60">
@@ -2162,19 +2162,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F60" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I60" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="61">
@@ -2191,22 +2191,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G61" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H61" t="n">
         <v>22.12631772356879</v>
@@ -2220,28 +2220,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F62" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G62" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H62" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I62" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="63">
@@ -2249,28 +2249,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C63" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G63" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H63" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I63" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="64">
@@ -2278,28 +2278,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F64" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G64" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H64" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I64" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="65">
@@ -2307,19 +2307,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C65" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E65" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F65" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G65" t="n">
         <v>52.30595243835617</v>
@@ -2328,7 +2328,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I65" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="66">
@@ -2336,19 +2336,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C66" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F66" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I66" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="67">
@@ -2365,22 +2365,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G67" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E68" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F68" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G68" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="69">
@@ -2423,28 +2423,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G69" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="70">
@@ -2452,28 +2452,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E70" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F70" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G70" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="71">
@@ -2481,28 +2481,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E71" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F71" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G71" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="72">
@@ -2510,19 +2510,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F72" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G72" t="n">
         <v>52.30595243835617</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="73">
@@ -2539,7 +2539,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F73" t="n">
-        <v>68.84748904109588</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="74">
@@ -2568,10 +2568,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C75" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G75" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H75" t="n">
         <v>22.12631772356879</v>
@@ -2626,19 +2626,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E76" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G76" t="n">
         <v>52.30595243835617</v>
@@ -2647,7 +2647,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I76" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="77">
@@ -2655,19 +2655,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C77" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I77" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="78">
@@ -2684,22 +2684,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C78" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D78" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G78" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H78" t="n">
         <v>22.12631772356879</v>
@@ -2713,19 +2713,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C79" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F79" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G79" t="n">
         <v>52.30595243835617</v>
@@ -2734,7 +2734,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I79" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="80">
@@ -2742,19 +2742,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C80" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F80" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I80" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="81">
@@ -2771,22 +2771,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C81" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D81" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G81" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H81" t="n">
         <v>22.12631772356879</v>
@@ -2800,28 +2800,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C82" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D82" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G82" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H82" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I82" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="83">
@@ -2829,19 +2829,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C83" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F83" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G83" t="n">
         <v>52.30595243835617</v>
@@ -2850,7 +2850,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I83" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="84">
@@ -2858,19 +2858,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C84" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F84" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I84" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="85">
@@ -2887,22 +2887,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G85" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H85" t="n">
         <v>22.12631772356879</v>
@@ -2916,28 +2916,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C86" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D86" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E86" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F86" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G86" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H86" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I86" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="87">
@@ -2945,28 +2945,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G87" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H87" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I87" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="88">
@@ -2974,28 +2974,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C88" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E88" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F88" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G88" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H88" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I88" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="89">
@@ -3003,19 +3003,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C89" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E89" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F89" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G89" t="n">
         <v>52.30595243835617</v>
@@ -3024,7 +3024,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I89" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="90">
@@ -3032,19 +3032,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F90" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I90" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="91">
@@ -3061,22 +3061,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>150</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+      <c r="D91" t="n">
         <v>300</v>
       </c>
-      <c r="C91" t="n">
-        <v>100</v>
-      </c>
-      <c r="D91" t="n">
-        <v>600</v>
-      </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G91" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H91" t="n">
         <v>22.12631772356879</v>
@@ -3090,28 +3090,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F92" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G92" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H92" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I92" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="93">
@@ -3119,28 +3119,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C93" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E93" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G93" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H93" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I93" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="94">
@@ -3148,28 +3148,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C94" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E94" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F94" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G94" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H94" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I94" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="95">
@@ -3177,28 +3177,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C95" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F95" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G95" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H95" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I95" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="96">
@@ -3206,19 +3206,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C96" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E96" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F96" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G96" t="n">
         <v>52.30595243835617</v>
@@ -3227,7 +3227,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I96" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="97">
@@ -3235,19 +3235,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>150</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
         <v>300</v>
       </c>
-      <c r="C97" t="n">
-        <v>100</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>600</v>
-      </c>
       <c r="F97" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I97" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="98">
@@ -3264,22 +3264,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G98" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3293,28 +3293,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E99" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F99" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G99" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="100">
@@ -3322,28 +3322,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E100" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F100" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G100" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="101">
@@ -3351,28 +3351,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E101" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F101" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G101" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="102">
@@ -3380,28 +3380,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F102" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G102" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="103">
@@ -3409,19 +3409,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>150</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" t="n">
         <v>300</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>100</v>
-      </c>
-      <c r="E103" t="n">
-        <v>600</v>
-      </c>
       <c r="F103" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G103" t="n">
         <v>52.30595243835617</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="104">
@@ -3438,7 +3438,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F104" t="n">
-        <v>51.63561678082191</v>
+        <v>34.42374452054794</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="105">
@@ -3467,10 +3467,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C105" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3496,22 +3496,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C106" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D106" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G106" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H106" t="n">
         <v>22.12631772356879</v>
@@ -3525,19 +3525,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C107" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E107" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F107" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G107" t="n">
         <v>52.30595243835617</v>
@@ -3546,7 +3546,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I107" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="108">
@@ -3554,19 +3554,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C108" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I108" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="109">
@@ -3583,22 +3583,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D109" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G109" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H109" t="n">
         <v>22.12631772356879</v>
@@ -3612,19 +3612,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D110" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E110" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F110" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G110" t="n">
         <v>52.30595243835617</v>
@@ -3633,7 +3633,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I110" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="111">
@@ -3641,19 +3641,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C111" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F111" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I111" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="112">
@@ -3670,22 +3670,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C112" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D112" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G112" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H112" t="n">
         <v>22.12631772356879</v>
@@ -3699,28 +3699,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C113" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D113" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E113" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G113" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H113" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I113" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="114">
@@ -3728,19 +3728,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C114" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E114" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F114" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G114" t="n">
         <v>52.30595243835617</v>
@@ -3749,7 +3749,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I114" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="115">
@@ -3757,19 +3757,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C115" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F115" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I115" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="116">
@@ -3786,22 +3786,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C116" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D116" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G116" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H116" t="n">
         <v>22.12631772356879</v>
@@ -3815,28 +3815,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C117" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D117" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E117" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F117" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G117" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H117" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I117" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="118">
@@ -3844,28 +3844,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C118" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D118" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E118" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G118" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H118" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I118" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="119">
@@ -3873,28 +3873,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C119" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D119" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E119" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F119" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G119" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H119" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I119" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="120">
@@ -3902,19 +3902,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C120" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D120" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E120" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F120" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G120" t="n">
         <v>52.30595243835617</v>
@@ -3923,7 +3923,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I120" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="121">
@@ -3931,19 +3931,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C121" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F121" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I121" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="122">
@@ -3960,22 +3960,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C122" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D122" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G122" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H122" t="n">
         <v>22.12631772356879</v>
@@ -3989,28 +3989,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D123" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E123" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F123" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G123" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H123" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I123" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="124">
@@ -4018,28 +4018,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C124" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D124" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E124" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F124" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G124" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H124" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I124" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="125">
@@ -4047,28 +4047,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C125" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D125" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E125" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F125" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G125" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H125" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I125" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="126">
@@ -4076,28 +4076,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C126" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D126" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E126" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F126" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G126" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H126" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I126" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="127">
@@ -4105,19 +4105,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C127" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D127" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E127" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F127" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G127" t="n">
         <v>52.30595243835617</v>
@@ -4126,7 +4126,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I127" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="128">
@@ -4134,19 +4134,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C128" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F128" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I128" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="129">
@@ -4163,22 +4163,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C129" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D129" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G129" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H129" t="n">
         <v>22.12631772356879</v>
@@ -4192,28 +4192,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C130" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D130" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E130" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F130" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G130" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H130" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I130" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="131">
@@ -4221,28 +4221,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C131" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D131" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E131" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F131" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G131" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H131" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I131" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="132">
@@ -4250,28 +4250,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C132" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D132" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E132" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F132" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G132" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H132" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I132" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="133">
@@ -4279,28 +4279,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C133" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D133" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E133" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F133" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G133" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H133" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I133" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="134">
@@ -4308,28 +4308,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C134" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D134" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F134" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G134" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H134" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I134" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="135">
@@ -4337,19 +4337,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C135" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E135" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F135" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G135" t="n">
         <v>52.30595243835617</v>
@@ -4358,7 +4358,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I135" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="136">
@@ -4366,19 +4366,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C136" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F136" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I136" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="137">
@@ -4395,22 +4395,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G137" t="n">
-        <v>418.4476195068493</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -4424,28 +4424,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E138" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F138" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G138" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="139">
@@ -4453,28 +4453,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E139" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F139" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G139" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="140">
@@ -4482,28 +4482,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E140" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F140" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G140" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="141">
@@ -4511,28 +4511,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E141" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F141" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G141" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="142">
@@ -4540,28 +4540,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E142" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F142" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G142" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="143">
@@ -4569,19 +4569,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E143" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F143" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G143" t="n">
         <v>52.30595243835617</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="144">
@@ -4598,7 +4598,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F144" t="n">
-        <v>34.42374452054794</v>
+        <v>17.21187226027397</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="145">
@@ -4627,10 +4627,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C145" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -4656,13 +4656,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C146" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D146" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -4685,16 +4685,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C147" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F147" t="n">
         <v>17.21187226027397</v>
@@ -4706,7 +4706,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I147" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="148">
@@ -4714,13 +4714,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C148" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D148" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G148" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H148" t="n">
         <v>22.12631772356879</v>
@@ -4743,16 +4743,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C149" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F149" t="n">
         <v>17.21187226027397</v>
@@ -4764,7 +4764,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I149" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="150">
@@ -4772,13 +4772,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C150" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D150" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G150" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H150" t="n">
         <v>22.12631772356879</v>
@@ -4801,16 +4801,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C151" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D151" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E151" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F151" t="n">
         <v>17.21187226027397</v>
@@ -4822,7 +4822,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I151" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="152">
@@ -4830,16 +4830,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C152" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F152" t="n">
         <v>17.21187226027397</v>
@@ -4851,7 +4851,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I152" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="153">
@@ -4859,13 +4859,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C153" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D153" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G153" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H153" t="n">
         <v>22.12631772356879</v>
@@ -4888,28 +4888,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C154" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D154" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E154" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F154" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G154" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H154" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I154" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="155">
@@ -4917,16 +4917,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C155" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D155" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E155" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F155" t="n">
         <v>17.21187226027397</v>
@@ -4938,7 +4938,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I155" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="156">
@@ -4946,16 +4946,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C156" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F156" t="n">
         <v>17.21187226027397</v>
@@ -4967,7 +4967,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I156" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="157">
@@ -4975,13 +4975,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C157" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D157" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G157" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H157" t="n">
         <v>22.12631772356879</v>
@@ -5004,28 +5004,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C158" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D158" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E158" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F158" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G158" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H158" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I158" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="159">
@@ -5033,28 +5033,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C159" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D159" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E159" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F159" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G159" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H159" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I159" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="160">
@@ -5062,28 +5062,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C160" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D160" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E160" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F160" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G160" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H160" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I160" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="161">
@@ -5091,16 +5091,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C161" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D161" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E161" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F161" t="n">
         <v>17.21187226027397</v>
@@ -5112,7 +5112,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I161" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="162">
@@ -5120,16 +5120,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C162" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F162" t="n">
         <v>17.21187226027397</v>
@@ -5141,7 +5141,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I162" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="163">
@@ -5149,14 +5149,14 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C163" t="n">
+        <v>150</v>
+      </c>
+      <c r="D163" t="n">
         <v>300</v>
       </c>
-      <c r="D163" t="n">
-        <v>600</v>
-      </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G163" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H163" t="n">
         <v>22.12631772356879</v>
@@ -5178,28 +5178,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C164" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D164" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E164" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F164" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G164" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H164" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I164" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="165">
@@ -5207,28 +5207,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C165" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D165" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E165" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F165" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G165" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H165" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I165" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="166">
@@ -5236,28 +5236,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C166" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D166" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E166" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F166" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G166" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H166" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I166" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="167">
@@ -5265,28 +5265,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C167" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D167" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E167" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F167" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G167" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H167" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I167" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="168">
@@ -5294,16 +5294,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C168" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D168" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E168" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F168" t="n">
         <v>17.21187226027397</v>
@@ -5315,7 +5315,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I168" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="169">
@@ -5323,17 +5323,17 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C169" t="n">
+        <v>150</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
         <v>300</v>
       </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>600</v>
-      </c>
       <c r="F169" t="n">
         <v>17.21187226027397</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I169" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="170">
@@ -5352,13 +5352,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C170" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D170" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G170" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H170" t="n">
         <v>22.12631772356879</v>
@@ -5381,28 +5381,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C171" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D171" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E171" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F171" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G171" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H171" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I171" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="172">
@@ -5410,28 +5410,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D172" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E172" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F172" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G172" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H172" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I172" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="173">
@@ -5439,28 +5439,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C173" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D173" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E173" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F173" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G173" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H173" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I173" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="174">
@@ -5468,28 +5468,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C174" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D174" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E174" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F174" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G174" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H174" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I174" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="175">
@@ -5497,28 +5497,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C175" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D175" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E175" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F175" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G175" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H175" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I175" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="176">
@@ -5526,16 +5526,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C176" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D176" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E176" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F176" t="n">
         <v>17.21187226027397</v>
@@ -5547,7 +5547,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I176" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="177">
@@ -5555,16 +5555,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C177" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F177" t="n">
         <v>17.21187226027397</v>
@@ -5576,7 +5576,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I177" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="178">
@@ -5584,13 +5584,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C178" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D178" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G178" t="n">
-        <v>418.4476195068493</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H178" t="n">
         <v>22.12631772356879</v>
@@ -5613,28 +5613,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C179" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D179" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E179" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F179" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G179" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H179" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I179" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="180">
@@ -5642,28 +5642,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C180" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D180" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E180" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F180" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G180" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H180" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I180" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="181">
@@ -5671,28 +5671,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C181" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D181" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E181" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F181" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G181" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H181" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I181" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="182">
@@ -5700,28 +5700,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C182" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D182" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E182" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F182" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G182" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H182" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I182" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="183">
@@ -5729,28 +5729,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C183" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D183" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E183" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F183" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G183" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H183" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I183" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="184">
@@ -5758,16 +5758,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C184" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D184" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E184" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F184" t="n">
         <v>17.21187226027397</v>
@@ -5779,7 +5779,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I184" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="185">
@@ -5787,16 +5787,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C185" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F185" t="n">
         <v>17.21187226027397</v>
@@ -5808,7 +5808,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I185" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="186">
@@ -5816,13 +5816,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>17.21187226027397</v>
       </c>
       <c r="G186" t="n">
-        <v>470.7535719452056</v>
+        <v>261.5297621917808</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -5845,28 +5845,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E187" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F187" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G187" t="n">
-        <v>418.4476195068493</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="188">
@@ -5874,28 +5874,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E188" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F188" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G188" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="189">
@@ -5903,28 +5903,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E189" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F189" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G189" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="190">
@@ -5932,28 +5932,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E190" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F190" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G190" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="191">
@@ -5961,28 +5961,28 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E191" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F191" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G191" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="192">
@@ -5990,28 +5990,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
+        <v>150</v>
+      </c>
+      <c r="E192" t="n">
         <v>300</v>
       </c>
-      <c r="E192" t="n">
-        <v>600</v>
-      </c>
       <c r="F192" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G192" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="193">
@@ -6019,28 +6019,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E193" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F193" t="n">
         <v>17.21187226027397</v>
       </c>
       <c r="G193" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="194">
@@ -6048,16 +6048,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E194" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F194" t="n">
         <v>17.21187226027397</v>
@@ -6069,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="195">
@@ -6077,7 +6077,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F195" t="n">
         <v>17.21187226027397</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="196">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -6138,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="D197" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -6167,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -6185,7 +6185,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I198" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="199">
@@ -6196,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D199" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H199" t="n">
         <v>22.12631772356879</v>
@@ -6225,13 +6225,13 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D200" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E200" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I200" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="201">
@@ -6254,13 +6254,13 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I201" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="202">
@@ -6283,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D202" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H202" t="n">
         <v>22.12631772356879</v>
@@ -6312,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D203" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E203" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I203" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="204">
@@ -6341,13 +6341,13 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I204" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="205">
@@ -6370,10 +6370,10 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D205" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H205" t="n">
         <v>22.12631772356879</v>
@@ -6399,25 +6399,25 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D206" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E206" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H206" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I206" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="207">
@@ -6428,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D207" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E207" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I207" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="208">
@@ -6457,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I208" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="209">
@@ -6486,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D209" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H209" t="n">
         <v>22.12631772356879</v>
@@ -6515,25 +6515,25 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D210" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E210" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H210" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I210" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="211">
@@ -6544,25 +6544,25 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D211" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E211" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H211" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I211" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="212">
@@ -6573,25 +6573,25 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D212" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E212" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H212" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I212" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="213">
@@ -6602,13 +6602,13 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D213" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E213" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I213" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="214">
@@ -6631,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I214" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="215">
@@ -6660,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D215" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H215" t="n">
         <v>22.12631772356879</v>
@@ -6689,25 +6689,25 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D216" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E216" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H216" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I216" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="217">
@@ -6718,25 +6718,25 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D217" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E217" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H217" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I217" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="218">
@@ -6747,25 +6747,25 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D218" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E218" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H218" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I218" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="219">
@@ -6776,25 +6776,25 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D219" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E219" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H219" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I219" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="220">
@@ -6805,13 +6805,13 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D220" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E220" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I220" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="221">
@@ -6834,13 +6834,13 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
       </c>
       <c r="E221" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I221" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="222">
@@ -6863,10 +6863,10 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D222" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H222" t="n">
         <v>22.12631772356879</v>
@@ -6892,25 +6892,25 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D223" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E223" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H223" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I223" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="224">
@@ -6921,25 +6921,25 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D224" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E224" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H224" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I224" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="225">
@@ -6950,25 +6950,25 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D225" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E225" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H225" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I225" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="226">
@@ -6979,25 +6979,25 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D226" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E226" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H226" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I226" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="227">
@@ -7008,14 +7008,14 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
+        <v>150</v>
+      </c>
+      <c r="D227" t="n">
+        <v>50</v>
+      </c>
+      <c r="E227" t="n">
         <v>300</v>
       </c>
-      <c r="D227" t="n">
-        <v>100</v>
-      </c>
-      <c r="E227" t="n">
-        <v>600</v>
-      </c>
       <c r="F227" t="n">
         <v>0</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I227" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="228">
@@ -7037,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I228" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="229">
@@ -7066,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D229" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>418.4476195068493</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H229" t="n">
         <v>22.12631772356879</v>
@@ -7095,25 +7095,25 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D230" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E230" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H230" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I230" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="231">
@@ -7124,25 +7124,25 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D231" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E231" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H231" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I231" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="232">
@@ -7153,25 +7153,25 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D232" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E232" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H232" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I232" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="233">
@@ -7182,25 +7182,25 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D233" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E233" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H233" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I233" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="234">
@@ -7211,25 +7211,25 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D234" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E234" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H234" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I234" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="235">
@@ -7240,13 +7240,13 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D235" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E235" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I235" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="236">
@@ -7269,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I236" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="237">
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D237" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>470.7535719452056</v>
+        <v>261.5297621917808</v>
       </c>
       <c r="H237" t="n">
         <v>22.12631772356879</v>
@@ -7327,25 +7327,25 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D238" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E238" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>418.4476195068493</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H238" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I238" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="239">
@@ -7356,25 +7356,25 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D239" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E239" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H239" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I239" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="240">
@@ -7385,25 +7385,25 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D240" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E240" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H240" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I240" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="241">
@@ -7414,25 +7414,25 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D241" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E241" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H241" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I241" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="242">
@@ -7443,25 +7443,25 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D242" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E242" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H242" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I242" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="243">
@@ -7472,25 +7472,25 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D243" t="n">
+        <v>150</v>
+      </c>
+      <c r="E243" t="n">
         <v>300</v>
       </c>
-      <c r="E243" t="n">
-        <v>600</v>
-      </c>
       <c r="F243" t="n">
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H243" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I243" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="244">
@@ -7501,25 +7501,25 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D244" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E244" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H244" t="n">
         <v>22.12631772356879</v>
       </c>
       <c r="I244" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="245">
@@ -7530,13 +7530,13 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D245" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E245" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I245" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="246">
@@ -7559,13 +7559,13 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>22.12631772356879</v>
       </c>
       <c r="I246" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="247">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>523.0595243835617</v>
+        <v>261.5297621917808</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -7620,22 +7620,22 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="E248" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>470.7535719452056</v>
+        <v>261.5297621917808</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="249">
@@ -7649,22 +7649,22 @@
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E249" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>418.4476195068493</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="250">
@@ -7678,22 +7678,22 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E250" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>366.1416670684932</v>
+        <v>209.2238097534247</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="251">
@@ -7707,22 +7707,22 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E251" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>313.835714630137</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="252">
@@ -7736,22 +7736,22 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E252" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>261.5297621917808</v>
+        <v>156.9178573150685</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="253">
@@ -7765,22 +7765,22 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E253" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>209.2238097534247</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="254">
@@ -7794,22 +7794,22 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E254" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>156.9178573150685</v>
+        <v>104.6119048767123</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="255">
@@ -7823,22 +7823,22 @@
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E255" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>104.6119048767123</v>
+        <v>52.30595243835617</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="256">
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E256" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
     <row r="257">
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>83.61212608909143</v>
+        <v>45.51275504885172</v>
       </c>
     </row>
   </sheetData>
